--- a/MAPPING/trunk/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/hints/SimplifiedHintsChainTest.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/hints/SimplifiedHintsChainTest.xlsx
@@ -91,9 +91,6 @@
     <t>a.e.b.aString</t>
   </si>
   <si>
-    <t>,ChildE,</t>
-  </si>
-  <si>
     <t>a.e.d.anInt</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>,,,</t>
+  </si>
+  <si>
+    <t>,ChildE</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="C4:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -680,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -692,17 +692,17 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="4"/>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
